--- a/data/StateEnergyProfiles.xlsx
+++ b/data/StateEnergyProfiles.xlsx
@@ -374,7 +374,7 @@
     <t>TotalRetailSales_inMWH_perSqMi</t>
   </si>
   <si>
-    <t>NetSummerCapacity_MW_per100SqMi</t>
+    <t>NetSummerCapacity_MW_perSqMi</t>
   </si>
 </sst>
 </file>
